--- a/Final_Project/Data/domain_market_trend.xlsx
+++ b/Final_Project/Data/domain_market_trend.xlsx
@@ -5,16 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thinkpad\Desktop\Final Python Project\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thinkpad\Desktop\CoderAcademy\Coder_Academy_Projects\Final_Project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11235"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11235" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="mkt_trend_all" sheetId="1" r:id="rId1"/>
     <sheet name="3_4_bdr_trend" sheetId="2" r:id="rId2"/>
-    <sheet name="mkt_trend_all (2)" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,29 +25,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="168">
-  <si>
-    <t>Bedrooms</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="163">
   <si>
     <t>Type</t>
   </si>
   <si>
-    <t>Median price</t>
-  </si>
-  <si>
     <t>Avg days on market</t>
   </si>
   <si>
     <t>Clearance rate</t>
   </si>
   <si>
-    <t>Sold this year</t>
-  </si>
-  <si>
-    <t>House</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -62,9 +49,6 @@
   </si>
   <si>
     <t>50 days</t>
-  </si>
-  <si>
-    <t>Unit</t>
   </si>
   <si>
     <t>$330k</t>
@@ -858,7 +842,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -875,45 +859,45 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G2" s="1">
         <v>5</v>
@@ -921,19 +905,19 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1">
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F3" s="3">
         <v>0.5</v>
@@ -944,19 +928,19 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1">
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F4" s="3">
         <v>0.41</v>
@@ -967,22 +951,22 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1">
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G5" s="1">
         <v>8</v>
@@ -990,22 +974,22 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G6" s="1">
         <v>3</v>
@@ -1013,22 +997,22 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G7" s="1">
         <v>27</v>
@@ -1036,22 +1020,22 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B8" s="1">
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G8" s="1">
         <v>29</v>
@@ -1059,19 +1043,19 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B9" s="1">
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F9" s="3">
         <v>0.43</v>
@@ -1082,19 +1066,19 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B10" s="1">
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F10" s="3">
         <v>0.06</v>
@@ -1105,22 +1089,22 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G11" s="1">
         <v>2</v>
@@ -1128,22 +1112,22 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B12" s="1">
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G12" s="1">
         <v>1</v>
@@ -1151,22 +1135,22 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B13" s="1">
         <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G13" s="1">
         <v>36</v>
@@ -1174,22 +1158,22 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B14" s="1">
         <v>2</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G14" s="1">
         <v>2</v>
@@ -1197,19 +1181,19 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B15" s="1">
         <v>3</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F15" s="3">
         <v>0.08</v>
@@ -1220,19 +1204,19 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B16" s="1">
         <v>4</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F16" s="3">
         <v>0.41</v>
@@ -1243,19 +1227,19 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B17" s="1">
         <v>5</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F17" s="3">
         <v>0.2</v>
@@ -1266,22 +1250,22 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B18" s="1">
         <v>3</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G18" s="1">
         <v>4</v>
@@ -1289,22 +1273,22 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B19" s="1">
         <v>2</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G19" s="1">
         <v>2</v>
@@ -1312,19 +1296,19 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B20" s="1">
         <v>3</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F20" s="3">
         <v>0.31</v>
@@ -1335,19 +1319,19 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B21" s="1">
         <v>4</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F21" s="3">
         <v>0.18</v>
@@ -1358,19 +1342,19 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B22" s="1">
         <v>5</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F22" s="3">
         <v>0.24</v>
@@ -1381,22 +1365,22 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B23" s="1">
         <v>3</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G23" s="1">
         <v>12</v>
@@ -1404,22 +1388,22 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B24" s="1">
         <v>2</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G24" s="1">
         <v>1</v>
@@ -1427,22 +1411,22 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B25" s="1">
         <v>3</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G25" s="1">
         <v>13</v>
@@ -1450,19 +1434,19 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B26" s="1">
         <v>4</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F26" s="3">
         <v>0.14000000000000001</v>
@@ -1473,22 +1457,22 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B27" s="1">
         <v>5</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G27" s="1">
         <v>26</v>
@@ -1496,22 +1480,22 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B28" s="1">
         <v>3</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G28" s="1">
         <v>5</v>
@@ -1519,22 +1503,22 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B29" s="1">
         <v>2</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G29" s="1">
         <v>2</v>
@@ -1542,19 +1526,19 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B30" s="1">
         <v>3</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F30" s="3">
         <v>0.71</v>
@@ -1565,19 +1549,19 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B31" s="1">
         <v>4</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F31" s="3">
         <v>0.33</v>
@@ -1588,22 +1572,22 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B32" s="1">
         <v>5</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G32" s="1">
         <v>12</v>
@@ -1611,22 +1595,22 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B33" s="1">
         <v>1</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G33" s="1">
         <v>1</v>
@@ -1634,22 +1618,22 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B34" s="1">
         <v>2</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G34" s="1">
         <v>26</v>
@@ -1657,22 +1641,22 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B35" s="1">
         <v>3</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G35" s="1">
         <v>13</v>
@@ -1680,22 +1664,22 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B36" s="1">
         <v>2</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G36" s="1">
         <v>6</v>
@@ -1703,19 +1687,19 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B37" s="1">
         <v>3</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F37" s="3">
         <v>0.85</v>
@@ -1726,19 +1710,19 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B38" s="1">
         <v>4</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F38" s="3">
         <v>0.63</v>
@@ -1749,19 +1733,19 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B39" s="1">
         <v>5</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F39" s="3">
         <v>0.45</v>
@@ -1772,22 +1756,22 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B40" s="1">
         <v>3</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G40" s="1">
         <v>9</v>
@@ -1795,22 +1779,22 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B41" s="1">
         <v>2</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G41" s="1">
         <v>2</v>
@@ -1818,22 +1802,22 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B42" s="1">
         <v>3</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G42" s="1">
         <v>24</v>
@@ -1841,22 +1825,22 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B43" s="1">
         <v>4</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G43" s="1">
         <v>17</v>
@@ -1864,22 +1848,22 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B44" s="1">
         <v>5</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G44" s="1">
         <v>5</v>
@@ -1887,22 +1871,22 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B45" s="1">
         <v>3</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G45" s="1">
         <v>2</v>
@@ -1910,22 +1894,22 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B46" s="1">
         <v>3</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G46" s="1">
         <v>21</v>
@@ -1933,19 +1917,19 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B47" s="1">
         <v>4</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F47" s="3">
         <v>0.27</v>
@@ -1956,19 +1940,19 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B48" s="1">
         <v>5</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F48" s="3">
         <v>0.36</v>
@@ -1979,22 +1963,22 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B49" s="1">
         <v>2</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G49" s="1">
         <v>4</v>
@@ -2002,22 +1986,22 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B50" s="1">
         <v>3</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G50" s="1">
         <v>81</v>
@@ -2025,22 +2009,22 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B51" s="1">
         <v>2</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G51" s="1">
         <v>1</v>
@@ -2048,19 +2032,19 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B52" s="1">
         <v>3</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F52" s="3">
         <v>0.5</v>
@@ -2071,22 +2055,22 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B53" s="1">
         <v>4</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G53" s="1">
         <v>51</v>
@@ -2094,22 +2078,22 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B54" s="1">
         <v>5</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G54" s="1">
         <v>6</v>
@@ -2117,22 +2101,22 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B55" s="1">
         <v>3</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G55" s="1">
         <v>10</v>
@@ -2147,7 +2131,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -2163,42 +2147,42 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B2" s="1">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1">
         <v>2020</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F2" s="1">
         <v>-6.2E-2</v>
@@ -2209,19 +2193,19 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B3" s="1">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1">
         <v>2019</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F3" s="1">
         <v>-6.9000000000000006E-2</v>
@@ -2232,19 +2216,19 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1">
         <v>2018</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F4" s="1">
         <v>6.8000000000000005E-2</v>
@@ -2255,19 +2239,19 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1">
         <v>2017</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F5" s="1">
         <v>4.1000000000000002E-2</v>
@@ -2278,19 +2262,19 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D6" s="1">
         <v>2016</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F6" s="1">
         <v>0.11700000000000001</v>
@@ -2301,19 +2285,19 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D7" s="1">
         <v>2020</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F7" s="1">
         <v>-0.11799999999999999</v>
@@ -2324,19 +2308,19 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B8" s="1">
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D8" s="1">
         <v>2019</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F8" s="2">
         <v>1.4999999999999999E-2</v>
@@ -2347,19 +2331,19 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B9" s="1">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D9" s="1">
         <v>2018</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F9" s="2">
         <v>-2.3E-2</v>
@@ -2370,19 +2354,19 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D10" s="1">
         <v>2017</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F10" s="3">
         <v>0.14000000000000001</v>
@@ -2393,19 +2377,19 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B11" s="1">
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D11" s="1">
         <v>2016</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F11" s="2">
         <v>-2E-3</v>
@@ -2416,19 +2400,19 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B12" s="1">
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D12" s="1">
         <v>2020</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F12" s="2">
         <v>1.0999999999999999E-2</v>
@@ -2439,19 +2423,19 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B13" s="1">
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D13" s="1">
         <v>2019</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F13" s="2">
         <v>8.2000000000000003E-2</v>
@@ -2462,19 +2446,19 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B14" s="1">
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D14" s="1">
         <v>2018</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F14" s="2">
         <v>-0.106</v>
@@ -2485,19 +2469,19 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B15" s="1">
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D15" s="1">
         <v>2017</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F15" s="2">
         <v>6.3E-2</v>
@@ -2508,19 +2492,19 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B16" s="1">
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D16" s="1">
         <v>2016</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F16" s="2">
         <v>5.1999999999999998E-2</v>
@@ -2531,19 +2515,19 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B17" s="1">
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D17" s="1">
         <v>2020</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F17" s="3">
         <v>0.1</v>
@@ -2554,19 +2538,19 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B18" s="1">
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D18" s="1">
         <v>2019</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F18" s="2">
         <v>-4.8000000000000001E-2</v>
@@ -2577,19 +2561,19 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B19" s="1">
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D19" s="1">
         <v>2018</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F19" s="2">
         <v>-4.4999999999999998E-2</v>
@@ -2600,19 +2584,19 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B20" s="1">
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D20" s="1">
         <v>2017</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F20" s="2">
         <v>0.122</v>
@@ -2623,19 +2607,19 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B21" s="1">
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D21" s="1">
         <v>2016</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F21" s="2">
         <v>6.5000000000000002E-2</v>
@@ -2646,22 +2630,22 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B22" s="1">
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D22" s="1">
         <v>2020</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G22" s="1">
         <v>13</v>
@@ -2669,22 +2653,22 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B23" s="1">
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D23" s="1">
         <v>2019</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G23" s="1">
         <v>8</v>
@@ -2692,19 +2676,19 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B24" s="1">
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D24" s="1">
         <v>2018</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F24" s="2">
         <v>-0.193</v>
@@ -2715,19 +2699,19 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B25" s="1">
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D25" s="1">
         <v>2017</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F25" s="2">
         <v>0.13500000000000001</v>
@@ -2738,19 +2722,19 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B26" s="1">
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D26" s="1">
         <v>2016</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F26" s="2">
         <v>-2.3E-2</v>
@@ -2761,19 +2745,19 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B27" s="1">
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D27" s="1">
         <v>2020</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F27" s="2">
         <v>5.0999999999999997E-2</v>
@@ -2784,19 +2768,19 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B28" s="1">
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D28" s="1">
         <v>2019</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F28" s="2">
         <v>-7.2999999999999995E-2</v>
@@ -2807,19 +2791,19 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B29" s="1">
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D29" s="1">
         <v>2018</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F29" s="3">
         <v>0.01</v>
@@ -2830,19 +2814,19 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B30" s="1">
         <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D30" s="1">
         <v>2017</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F30" s="2">
         <v>4.4999999999999998E-2</v>
@@ -2853,19 +2837,19 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B31" s="1">
         <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D31" s="1">
         <v>2016</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F31" s="2">
         <v>4.2999999999999997E-2</v>
@@ -2876,19 +2860,19 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B32" s="1">
         <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D32" s="1">
         <v>2020</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F32" s="2">
         <v>7.9000000000000001E-2</v>
@@ -2899,19 +2883,19 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B33" s="1">
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D33" s="1">
         <v>2019</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F33" s="2">
         <v>-4.7E-2</v>
@@ -2922,19 +2906,19 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B34" s="1">
         <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D34" s="1">
         <v>2018</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F34" s="2">
         <v>-2E-3</v>
@@ -2945,19 +2929,19 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B35" s="1">
         <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D35" s="1">
         <v>2017</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F35" s="2">
         <v>9.2999999999999999E-2</v>
@@ -2968,19 +2952,19 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B36" s="1">
         <v>3</v>
       </c>
       <c r="C36" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D36" s="1">
         <v>2016</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F36" s="2">
         <v>0.17399999999999999</v>
@@ -2991,19 +2975,19 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B37" s="1">
         <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D37" s="1">
         <v>2020</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F37" s="2">
         <v>8.1000000000000003E-2</v>
@@ -3014,19 +2998,19 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B38" s="1">
         <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D38" s="1">
         <v>2019</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F38" s="2">
         <v>-6.0999999999999999E-2</v>
@@ -3037,19 +3021,19 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B39" s="1">
         <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D39" s="1">
         <v>2018</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F39" s="2">
         <v>-3.9E-2</v>
@@ -3060,19 +3044,19 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B40" s="1">
         <v>3</v>
       </c>
       <c r="C40" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D40" s="1">
         <v>2017</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F40" s="2">
         <v>9.6000000000000002E-2</v>
@@ -3083,19 +3067,19 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B41" s="1">
         <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D41" s="1">
         <v>2016</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F41" s="3">
         <v>0.06</v>
@@ -3106,19 +3090,19 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B42" s="1">
         <v>3</v>
       </c>
       <c r="C42" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D42" s="1">
         <v>2020</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F42" s="3">
         <v>-0.01</v>
@@ -3129,19 +3113,19 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B43" s="1">
         <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D43" s="1">
         <v>2019</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F43" s="2">
         <v>0.10100000000000001</v>
@@ -3152,19 +3136,19 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B44" s="1">
         <v>3</v>
       </c>
       <c r="C44" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D44" s="1">
         <v>2018</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F44" s="2">
         <v>-7.9000000000000001E-2</v>
@@ -3175,19 +3159,19 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B45" s="1">
         <v>3</v>
       </c>
       <c r="C45" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D45" s="1">
         <v>2017</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F45" s="2">
         <v>0.185</v>
@@ -3198,19 +3182,19 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B46" s="1">
         <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D46" s="1">
         <v>2016</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F46" s="2">
         <v>7.1999999999999995E-2</v>
@@ -3221,19 +3205,19 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B47" s="1">
         <v>3</v>
       </c>
       <c r="C47" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D47" s="1">
         <v>2020</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F47" s="2">
         <v>1.4999999999999999E-2</v>
@@ -3244,22 +3228,22 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B48" s="1">
         <v>3</v>
       </c>
       <c r="C48" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D48" s="1">
         <v>2019</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G48" s="1">
         <v>52</v>
@@ -3267,19 +3251,19 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B49" s="1">
         <v>3</v>
       </c>
       <c r="C49" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D49" s="1">
         <v>2018</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F49" s="2">
         <v>-2E-3</v>
@@ -3290,19 +3274,19 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B50" s="1">
         <v>3</v>
       </c>
       <c r="C50" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D50" s="1">
         <v>2017</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F50" s="3">
         <v>7.0000000000000007E-2</v>
@@ -3313,19 +3297,19 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B51" s="1">
         <v>3</v>
       </c>
       <c r="C51" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D51" s="1">
         <v>2016</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F51" s="2">
         <v>2.3E-2</v>
@@ -3336,19 +3320,19 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B52" s="1">
         <v>4</v>
       </c>
       <c r="C52" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D52" s="1">
         <v>2020</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F52" s="1">
         <v>2.7E-2</v>
@@ -3359,19 +3343,19 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B53" s="1">
         <v>4</v>
       </c>
       <c r="C53" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D53" s="1">
         <v>2019</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F53" s="1">
         <v>8.0000000000000002E-3</v>
@@ -3382,19 +3366,19 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B54" s="1">
         <v>4</v>
       </c>
       <c r="C54" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D54" s="1">
         <v>2018</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F54" s="1">
         <v>-0.02</v>
@@ -3405,19 +3389,19 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B55" s="1">
         <v>4</v>
       </c>
       <c r="C55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D55" s="1">
         <v>2017</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F55" s="1">
         <v>2.9000000000000001E-2</v>
@@ -3428,19 +3412,19 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B56" s="1">
         <v>4</v>
       </c>
       <c r="C56" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D56" s="1">
         <v>2016</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F56" s="1">
         <v>5.6000000000000001E-2</v>
@@ -3451,19 +3435,19 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B57" s="1">
         <v>4</v>
       </c>
       <c r="C57" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D57" s="1">
         <v>2020</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F57" s="2">
         <v>1.7999999999999999E-2</v>
@@ -3474,19 +3458,19 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B58" s="1">
         <v>4</v>
       </c>
       <c r="C58" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D58" s="1">
         <v>2019</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F58" s="2">
         <v>-1.7000000000000001E-2</v>
@@ -3497,19 +3481,19 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B59" s="1">
         <v>4</v>
       </c>
       <c r="C59" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D59" s="1">
         <v>2018</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F59" s="2">
         <v>-2.5999999999999999E-2</v>
@@ -3520,19 +3504,19 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B60" s="1">
         <v>4</v>
       </c>
       <c r="C60" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D60" s="1">
         <v>2017</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F60" s="2">
         <v>2.7E-2</v>
@@ -3543,19 +3527,19 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B61" s="1">
         <v>4</v>
       </c>
       <c r="C61" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D61" s="1">
         <v>2016</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F61" s="2">
         <v>0.105</v>
@@ -3566,19 +3550,19 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B62" s="1">
         <v>4</v>
       </c>
       <c r="C62" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D62" s="1">
         <v>2020</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F62" s="2">
         <v>3.6999999999999998E-2</v>
@@ -3589,19 +3573,19 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B63" s="1">
         <v>4</v>
       </c>
       <c r="C63" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D63" s="1">
         <v>2019</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F63" s="2">
         <v>-0.16300000000000001</v>
@@ -3612,19 +3596,19 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B64" s="1">
         <v>4</v>
       </c>
       <c r="C64" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D64" s="1">
         <v>2018</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F64" s="2">
         <v>6.0000000000000001E-3</v>
@@ -3635,19 +3619,19 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B65" s="1">
         <v>4</v>
       </c>
       <c r="C65" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D65" s="1">
         <v>2017</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F65" s="2">
         <v>0.161</v>
@@ -3658,19 +3642,19 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B66" s="1">
         <v>4</v>
       </c>
       <c r="C66" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D66" s="1">
         <v>2016</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F66" s="2">
         <v>5.0999999999999997E-2</v>
@@ -3681,19 +3665,19 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B67" s="1">
         <v>4</v>
       </c>
       <c r="C67" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D67" s="1">
         <v>2020</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F67" s="2">
         <v>3.0000000000000001E-3</v>
@@ -3704,19 +3688,19 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B68" s="1">
         <v>4</v>
       </c>
       <c r="C68" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D68" s="1">
         <v>2019</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F68" s="2">
         <v>-6.7000000000000004E-2</v>
@@ -3727,19 +3711,19 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B69" s="1">
         <v>4</v>
       </c>
       <c r="C69" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D69" s="1">
         <v>2018</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F69" s="2">
         <v>7.0000000000000001E-3</v>
@@ -3750,19 +3734,19 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B70" s="1">
         <v>4</v>
       </c>
       <c r="C70" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D70" s="1">
         <v>2017</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F70" s="2">
         <v>2.5000000000000001E-2</v>
@@ -3773,19 +3757,19 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B71" s="1">
         <v>4</v>
       </c>
       <c r="C71" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D71" s="1">
         <v>2016</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F71" s="2">
         <v>4.5999999999999999E-2</v>
@@ -3796,19 +3780,19 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B72" s="1">
         <v>4</v>
       </c>
       <c r="C72" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D72" s="1">
         <v>2020</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F72" s="3">
         <v>-0.04</v>
@@ -3819,22 +3803,22 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B73" s="1">
         <v>4</v>
       </c>
       <c r="C73" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D73" s="1">
         <v>2019</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G73" s="1">
         <v>48</v>
@@ -3842,19 +3826,19 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B74" s="1">
         <v>4</v>
       </c>
       <c r="C74" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D74" s="1">
         <v>2018</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F74" s="2">
         <v>-1.2E-2</v>
@@ -3865,19 +3849,19 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B75" s="1">
         <v>4</v>
       </c>
       <c r="C75" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D75" s="1">
         <v>2017</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F75" s="2">
         <v>5.7000000000000002E-2</v>
@@ -3888,19 +3872,19 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B76" s="1">
         <v>4</v>
       </c>
       <c r="C76" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D76" s="1">
         <v>2016</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F76" s="2">
         <v>4.2000000000000003E-2</v>
@@ -3911,19 +3895,19 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B77" s="1">
         <v>4</v>
       </c>
       <c r="C77" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D77" s="1">
         <v>2020</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F77" s="2">
         <v>8.9999999999999993E-3</v>
@@ -3934,19 +3918,19 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B78" s="1">
         <v>4</v>
       </c>
       <c r="C78" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D78" s="1">
         <v>2019</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F78" s="2">
         <v>2.5999999999999999E-2</v>
@@ -3957,22 +3941,22 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B79" s="1">
         <v>4</v>
       </c>
       <c r="C79" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D79" s="1">
         <v>2018</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G79" s="1">
         <v>22</v>
@@ -3980,19 +3964,19 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B80" s="1">
         <v>4</v>
       </c>
       <c r="C80" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D80" s="1">
         <v>2017</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F80" s="2">
         <v>0.127</v>
@@ -4003,22 +3987,22 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B81" s="1">
         <v>4</v>
       </c>
       <c r="C81" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D81" s="1">
         <v>2016</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G81" s="1">
         <v>24</v>
@@ -4026,19 +4010,19 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B82" s="1">
         <v>4</v>
       </c>
       <c r="C82" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D82" s="1">
         <v>2020</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F82" s="2">
         <v>5.8000000000000003E-2</v>
@@ -4049,19 +4033,19 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B83" s="1">
         <v>4</v>
       </c>
       <c r="C83" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D83" s="1">
         <v>2019</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F83" s="2">
         <v>-2.5000000000000001E-2</v>
@@ -4072,19 +4056,19 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B84" s="1">
         <v>4</v>
       </c>
       <c r="C84" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D84" s="1">
         <v>2018</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F84" s="2">
         <v>2.4E-2</v>
@@ -4095,19 +4079,19 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B85" s="1">
         <v>4</v>
       </c>
       <c r="C85" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D85" s="1">
         <v>2017</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F85" s="2">
         <v>4.0000000000000001E-3</v>
@@ -4118,19 +4102,19 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B86" s="1">
         <v>4</v>
       </c>
       <c r="C86" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D86" s="1">
         <v>2016</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F86" s="2">
         <v>0.10199999999999999</v>
@@ -4141,19 +4125,19 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B87" s="1">
         <v>4</v>
       </c>
       <c r="C87" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D87" s="1">
         <v>2020</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F87" s="2">
         <v>3.9E-2</v>
@@ -4164,19 +4148,19 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B88" s="1">
         <v>4</v>
       </c>
       <c r="C88" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D88" s="1">
         <v>2019</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F88" s="2">
         <v>2.1999999999999999E-2</v>
@@ -4187,19 +4171,19 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B89" s="1">
         <v>4</v>
       </c>
       <c r="C89" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D89" s="1">
         <v>2018</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F89" s="3">
         <v>0.04</v>
@@ -4210,19 +4194,19 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B90" s="1">
         <v>4</v>
       </c>
       <c r="C90" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D90" s="1">
         <v>2017</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F90" s="2">
         <v>4.2999999999999997E-2</v>
@@ -4233,19 +4217,19 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B91" s="1">
         <v>4</v>
       </c>
       <c r="C91" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D91" s="1">
         <v>2016</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F91" s="2">
         <v>0.112</v>
@@ -4256,19 +4240,19 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B92" s="1">
         <v>4</v>
       </c>
       <c r="C92" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D92" s="1">
         <v>2020</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F92" s="2">
         <v>0.11700000000000001</v>
@@ -4279,19 +4263,19 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B93" s="1">
         <v>4</v>
       </c>
       <c r="C93" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D93" s="1">
         <v>2019</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F93" s="2">
         <v>-0.11700000000000001</v>
@@ -4302,19 +4286,19 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B94" s="1">
         <v>4</v>
       </c>
       <c r="C94" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D94" s="1">
         <v>2018</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F94" s="2">
         <v>-1.4999999999999999E-2</v>
@@ -4325,19 +4309,19 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B95" s="1">
         <v>4</v>
       </c>
       <c r="C95" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D95" s="1">
         <v>2017</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F95" s="2">
         <v>5.6000000000000001E-2</v>
@@ -4348,19 +4332,19 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B96" s="1">
         <v>4</v>
       </c>
       <c r="C96" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D96" s="1">
         <v>2016</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F96" s="2">
         <v>9.6000000000000002E-2</v>
@@ -4371,19 +4355,19 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B97" s="1">
         <v>4</v>
       </c>
       <c r="C97" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D97" s="1">
         <v>2020</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F97" s="2">
         <v>2.4E-2</v>
@@ -4394,19 +4378,19 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B98" s="1">
         <v>4</v>
       </c>
       <c r="C98" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D98" s="1">
         <v>2019</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F98" s="3">
         <v>-0.02</v>
@@ -4417,19 +4401,19 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B99" s="1">
         <v>4</v>
       </c>
       <c r="C99" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D99" s="1">
         <v>2018</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F99" s="3">
         <v>0.03</v>
@@ -4440,19 +4424,19 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B100" s="1">
         <v>4</v>
       </c>
       <c r="C100" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D100" s="1">
         <v>2017</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F100" s="2">
         <v>6.5000000000000002E-2</v>
@@ -4463,19 +4447,19 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B101" s="1">
         <v>4</v>
       </c>
       <c r="C101" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D101" s="1">
         <v>2016</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F101" s="2">
         <v>1.6E-2</v>
@@ -4488,1293 +4472,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G55"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="25.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="1">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="1">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="G3" s="1">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="1">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0.41</v>
-      </c>
-      <c r="G4" s="1">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="1">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="1">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="1">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="1">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0.43</v>
-      </c>
-      <c r="G9" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="1">
-        <v>5</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0.06</v>
-      </c>
-      <c r="G10" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="1">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="1">
-        <v>2</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="1">
-        <v>3</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="1">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="1">
-        <v>2</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="1">
-        <v>3</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0.08</v>
-      </c>
-      <c r="G15" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="1">
-        <v>4</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" s="3">
-        <v>0.41</v>
-      </c>
-      <c r="G16" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="1">
-        <v>5</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="G17" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="1">
-        <v>3</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>60</v>
-      </c>
-      <c r="B19" s="1">
-        <v>2</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" s="1">
-        <v>3</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0.31</v>
-      </c>
-      <c r="G20" s="1">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21" s="1">
-        <v>4</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F21" s="3">
-        <v>0.18</v>
-      </c>
-      <c r="G21" s="1">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="1">
-        <v>5</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0.24</v>
-      </c>
-      <c r="G22" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>60</v>
-      </c>
-      <c r="B23" s="1">
-        <v>3</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G23" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>77</v>
-      </c>
-      <c r="B24" s="1">
-        <v>2</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G24" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>77</v>
-      </c>
-      <c r="B25" s="1">
-        <v>3</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G25" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>77</v>
-      </c>
-      <c r="B26" s="1">
-        <v>4</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F26" s="3">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="G26" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B27" s="1">
-        <v>5</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G27" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>77</v>
-      </c>
-      <c r="B28" s="1">
-        <v>3</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G28" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>100</v>
-      </c>
-      <c r="B29" s="1">
-        <v>2</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G29" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>100</v>
-      </c>
-      <c r="B30" s="1">
-        <v>3</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F30" s="3">
-        <v>0.71</v>
-      </c>
-      <c r="G30" s="1">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>100</v>
-      </c>
-      <c r="B31" s="1">
-        <v>4</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F31" s="3">
-        <v>0.33</v>
-      </c>
-      <c r="G31" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>100</v>
-      </c>
-      <c r="B32" s="1">
-        <v>5</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G32" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>100</v>
-      </c>
-      <c r="B33" s="1">
-        <v>1</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G33" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>100</v>
-      </c>
-      <c r="B34" s="1">
-        <v>2</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G34" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>100</v>
-      </c>
-      <c r="B35" s="1">
-        <v>3</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G35" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>108</v>
-      </c>
-      <c r="B36" s="1">
-        <v>2</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G36" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>108</v>
-      </c>
-      <c r="B37" s="1">
-        <v>3</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F37" s="3">
-        <v>0.85</v>
-      </c>
-      <c r="G37" s="1">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>108</v>
-      </c>
-      <c r="B38" s="1">
-        <v>4</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F38" s="3">
-        <v>0.63</v>
-      </c>
-      <c r="G38" s="1">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>108</v>
-      </c>
-      <c r="B39" s="1">
-        <v>5</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F39" s="3">
-        <v>0.45</v>
-      </c>
-      <c r="G39" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>108</v>
-      </c>
-      <c r="B40" s="1">
-        <v>3</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G40" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>122</v>
-      </c>
-      <c r="B41" s="1">
-        <v>2</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G41" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>122</v>
-      </c>
-      <c r="B42" s="1">
-        <v>3</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G42" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>122</v>
-      </c>
-      <c r="B43" s="1">
-        <v>4</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G43" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>122</v>
-      </c>
-      <c r="B44" s="1">
-        <v>5</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G44" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>122</v>
-      </c>
-      <c r="B45" s="1">
-        <v>3</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G45" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>135</v>
-      </c>
-      <c r="B46" s="1">
-        <v>3</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G46" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>135</v>
-      </c>
-      <c r="B47" s="1">
-        <v>4</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0.27</v>
-      </c>
-      <c r="G47" s="1">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>135</v>
-      </c>
-      <c r="B48" s="1">
-        <v>5</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0.36</v>
-      </c>
-      <c r="G48" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>135</v>
-      </c>
-      <c r="B49" s="1">
-        <v>2</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G49" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>135</v>
-      </c>
-      <c r="B50" s="1">
-        <v>3</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G50" s="1">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>150</v>
-      </c>
-      <c r="B51" s="1">
-        <v>2</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G51" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>150</v>
-      </c>
-      <c r="B52" s="1">
-        <v>3</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="G52" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>150</v>
-      </c>
-      <c r="B53" s="1">
-        <v>4</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G53" s="1">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>150</v>
-      </c>
-      <c r="B54" s="1">
-        <v>5</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G54" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>150</v>
-      </c>
-      <c r="B55" s="1">
-        <v>3</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G55" s="1">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>